--- a/natmiOut/OldD4/LR-pairs_lrc2p/Hras-Agtr1a.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Hras-Agtr1a.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.769008115661711</v>
+        <v>9.049481999999999</v>
       </c>
       <c r="H2">
-        <v>8.769008115661711</v>
+        <v>27.148446</v>
       </c>
       <c r="I2">
-        <v>0.280410950031407</v>
+        <v>0.2715881048104983</v>
       </c>
       <c r="J2">
-        <v>0.280410950031407</v>
+        <v>0.2887858053066977</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.40380208883996</v>
+        <v>2.024115666666666</v>
       </c>
       <c r="N2">
-        <v>1.40380208883996</v>
+        <v>6.072347</v>
       </c>
       <c r="O2">
-        <v>0.02951595783692422</v>
+        <v>0.04033801028669426</v>
       </c>
       <c r="P2">
-        <v>0.02951595783692422</v>
+        <v>0.05315356654931184</v>
       </c>
       <c r="Q2">
-        <v>12.30995190982047</v>
+        <v>18.31719829141799</v>
       </c>
       <c r="R2">
-        <v>12.30995190982047</v>
+        <v>164.854784622762</v>
       </c>
       <c r="S2">
-        <v>0.008276597778138873</v>
+        <v>0.01095532376558968</v>
       </c>
       <c r="T2">
-        <v>0.008276597778138873</v>
+        <v>0.01534999552086617</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.769008115661711</v>
+        <v>9.049481999999999</v>
       </c>
       <c r="H3">
-        <v>8.769008115661711</v>
+        <v>27.148446</v>
       </c>
       <c r="I3">
-        <v>0.280410950031407</v>
+        <v>0.2715881048104983</v>
       </c>
       <c r="J3">
-        <v>0.280410950031407</v>
+        <v>0.2887858053066977</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.5347689272172</v>
+        <v>11.85972166666667</v>
       </c>
       <c r="N3">
-        <v>10.5347689272172</v>
+        <v>35.579165</v>
       </c>
       <c r="O3">
-        <v>0.2215011631265148</v>
+        <v>0.2363489312718777</v>
       </c>
       <c r="P3">
-        <v>0.2215011631265148</v>
+        <v>0.3114379851145606</v>
       </c>
       <c r="Q3">
-        <v>92.37947421938844</v>
+        <v>107.32433774751</v>
       </c>
       <c r="R3">
-        <v>92.37947421938844</v>
+        <v>965.9190397275901</v>
       </c>
       <c r="S3">
-        <v>0.06211135158536769</v>
+        <v>0.06418955831811599</v>
       </c>
       <c r="T3">
-        <v>0.06211135158536769</v>
+        <v>0.08993886933440373</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.769008115661711</v>
+        <v>9.049481999999999</v>
       </c>
       <c r="H4">
-        <v>8.769008115661711</v>
+        <v>27.148446</v>
       </c>
       <c r="I4">
-        <v>0.280410950031407</v>
+        <v>0.2715881048104983</v>
       </c>
       <c r="J4">
-        <v>0.280410950031407</v>
+        <v>0.2887858053066977</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>35.622212767277</v>
+        <v>36.29503</v>
       </c>
       <c r="N4">
-        <v>35.622212767277</v>
+        <v>72.59005999999999</v>
       </c>
       <c r="O4">
-        <v>0.7489828790365609</v>
+        <v>0.7233130584414281</v>
       </c>
       <c r="P4">
-        <v>0.7489828790365609</v>
+        <v>0.6354084483361276</v>
       </c>
       <c r="Q4">
-        <v>312.3714728540802</v>
+        <v>328.4512206744599</v>
       </c>
       <c r="R4">
-        <v>312.3714728540802</v>
+        <v>1970.70732404676</v>
       </c>
       <c r="S4">
-        <v>0.2100230006679005</v>
+        <v>0.1964432227267927</v>
       </c>
       <c r="T4">
-        <v>0.2100230006679005</v>
+        <v>0.1834969404514279</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.05344299852703</v>
+        <v>5.313100666666667</v>
       </c>
       <c r="H5">
-        <v>5.05344299852703</v>
+        <v>15.939302</v>
       </c>
       <c r="I5">
-        <v>0.1615964694588034</v>
+        <v>0.1594538715837432</v>
       </c>
       <c r="J5">
-        <v>0.1615964694588034</v>
+        <v>0.1695509261965366</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.40380208883996</v>
+        <v>2.024115666666666</v>
       </c>
       <c r="N5">
-        <v>1.40380208883996</v>
+        <v>6.072347</v>
       </c>
       <c r="O5">
-        <v>0.02951595783692422</v>
+        <v>0.04033801028669426</v>
       </c>
       <c r="P5">
-        <v>0.02951595783692422</v>
+        <v>0.05315356654931184</v>
       </c>
       <c r="Q5">
-        <v>7.094033837165917</v>
+        <v>10.75433029797711</v>
       </c>
       <c r="R5">
-        <v>7.094033837165917</v>
+        <v>96.78897268179401</v>
       </c>
       <c r="S5">
-        <v>0.004769674579141853</v>
+        <v>0.006432051912198258</v>
       </c>
       <c r="T5">
-        <v>0.004769674579141853</v>
+        <v>0.009012236439085065</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.05344299852703</v>
+        <v>5.313100666666667</v>
       </c>
       <c r="H6">
-        <v>5.05344299852703</v>
+        <v>15.939302</v>
       </c>
       <c r="I6">
-        <v>0.1615964694588034</v>
+        <v>0.1594538715837432</v>
       </c>
       <c r="J6">
-        <v>0.1615964694588034</v>
+        <v>0.1695509261965366</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.5347689272172</v>
+        <v>11.85972166666667</v>
       </c>
       <c r="N6">
-        <v>10.5347689272172</v>
+        <v>35.579165</v>
       </c>
       <c r="O6">
-        <v>0.2215011631265148</v>
+        <v>0.2363489312718777</v>
       </c>
       <c r="P6">
-        <v>0.2215011631265148</v>
+        <v>0.3114379851145606</v>
       </c>
       <c r="Q6">
-        <v>53.23685427634587</v>
+        <v>63.01189509364779</v>
       </c>
       <c r="R6">
-        <v>53.23685427634587</v>
+        <v>567.1070558428301</v>
       </c>
       <c r="S6">
-        <v>0.03579380594226329</v>
+        <v>0.03768675213598092</v>
       </c>
       <c r="T6">
-        <v>0.03579380594226329</v>
+        <v>0.05280459882895692</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.05344299852703</v>
+        <v>5.313100666666667</v>
       </c>
       <c r="H7">
-        <v>5.05344299852703</v>
+        <v>15.939302</v>
       </c>
       <c r="I7">
-        <v>0.1615964694588034</v>
+        <v>0.1594538715837432</v>
       </c>
       <c r="J7">
-        <v>0.1615964694588034</v>
+        <v>0.1695509261965366</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>35.622212767277</v>
+        <v>36.29503</v>
       </c>
       <c r="N7">
-        <v>35.622212767277</v>
+        <v>72.59005999999999</v>
       </c>
       <c r="O7">
-        <v>0.7489828790365609</v>
+        <v>0.7233130584414281</v>
       </c>
       <c r="P7">
-        <v>0.7489828790365609</v>
+        <v>0.6354084483361276</v>
       </c>
       <c r="Q7">
-        <v>180.0148217008361</v>
+        <v>192.8391480896867</v>
       </c>
       <c r="R7">
-        <v>180.0148217008361</v>
+        <v>1157.03488853812</v>
       </c>
       <c r="S7">
-        <v>0.1210329889373983</v>
+        <v>0.115335067535564</v>
       </c>
       <c r="T7">
-        <v>0.1210329889373983</v>
+        <v>0.1077340909284946</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.52104509381789</v>
+        <v>4.671725333333334</v>
       </c>
       <c r="H8">
-        <v>4.52104509381789</v>
+        <v>14.015176</v>
       </c>
       <c r="I8">
-        <v>0.1445717158851827</v>
+        <v>0.1402052658345742</v>
       </c>
       <c r="J8">
-        <v>0.1445717158851827</v>
+        <v>0.1490834461639205</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.40380208883996</v>
+        <v>2.024115666666666</v>
       </c>
       <c r="N8">
-        <v>1.40380208883996</v>
+        <v>6.072347</v>
       </c>
       <c r="O8">
-        <v>0.02951595783692422</v>
+        <v>0.04033801028669426</v>
       </c>
       <c r="P8">
-        <v>0.02951595783692422</v>
+        <v>0.05315356654931184</v>
       </c>
       <c r="Q8">
-        <v>6.346652546441208</v>
+        <v>9.456112437563554</v>
       </c>
       <c r="R8">
-        <v>6.346652546441208</v>
+        <v>85.105011938072</v>
       </c>
       <c r="S8">
-        <v>0.00426717267047884</v>
+        <v>0.005655601455483755</v>
       </c>
       <c r="T8">
-        <v>0.00426717267047884</v>
+        <v>0.007924316877074697</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.52104509381789</v>
+        <v>4.671725333333334</v>
       </c>
       <c r="H9">
-        <v>4.52104509381789</v>
+        <v>14.015176</v>
       </c>
       <c r="I9">
-        <v>0.1445717158851827</v>
+        <v>0.1402052658345742</v>
       </c>
       <c r="J9">
-        <v>0.1445717158851827</v>
+        <v>0.1490834461639205</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.5347689272172</v>
+        <v>11.85972166666667</v>
       </c>
       <c r="N9">
-        <v>10.5347689272172</v>
+        <v>35.579165</v>
       </c>
       <c r="O9">
-        <v>0.2215011631265148</v>
+        <v>0.2363489312718777</v>
       </c>
       <c r="P9">
-        <v>0.2215011631265148</v>
+        <v>0.3114379851145606</v>
       </c>
       <c r="Q9">
-        <v>47.62816537290048</v>
+        <v>55.40536215644889</v>
       </c>
       <c r="R9">
-        <v>47.62816537290048</v>
+        <v>498.6482594080401</v>
       </c>
       <c r="S9">
-        <v>0.03202280322376401</v>
+        <v>0.0331373647386911</v>
       </c>
       <c r="T9">
-        <v>0.03202280322376401</v>
+        <v>0.04643024808722647</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.52104509381789</v>
+        <v>4.671725333333334</v>
       </c>
       <c r="H10">
-        <v>4.52104509381789</v>
+        <v>14.015176</v>
       </c>
       <c r="I10">
-        <v>0.1445717158851827</v>
+        <v>0.1402052658345742</v>
       </c>
       <c r="J10">
-        <v>0.1445717158851827</v>
+        <v>0.1490834461639205</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>35.622212767277</v>
+        <v>36.29503</v>
       </c>
       <c r="N10">
-        <v>35.622212767277</v>
+        <v>72.59005999999999</v>
       </c>
       <c r="O10">
-        <v>0.7489828790365609</v>
+        <v>0.7233130584414281</v>
       </c>
       <c r="P10">
-        <v>0.7489828790365609</v>
+        <v>0.6354084483361276</v>
       </c>
       <c r="Q10">
-        <v>161.0496302624347</v>
+        <v>169.5604111250933</v>
       </c>
       <c r="R10">
-        <v>161.0496302624347</v>
+        <v>1017.36246675056</v>
       </c>
       <c r="S10">
-        <v>0.1082817399909399</v>
+        <v>0.1014122996403993</v>
       </c>
       <c r="T10">
-        <v>0.1082817399909399</v>
+        <v>0.09472888119961935</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.90496562051567</v>
+        <v>8.333402</v>
       </c>
       <c r="H11">
-        <v>7.90496562051567</v>
+        <v>25.000206</v>
       </c>
       <c r="I11">
-        <v>0.2527810318313455</v>
+        <v>0.2500975034597578</v>
       </c>
       <c r="J11">
-        <v>0.2527810318313455</v>
+        <v>0.2659343603881907</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.40380208883996</v>
+        <v>2.024115666666666</v>
       </c>
       <c r="N11">
-        <v>1.40380208883996</v>
+        <v>6.072347</v>
       </c>
       <c r="O11">
-        <v>0.02951595783692422</v>
+        <v>0.04033801028669426</v>
       </c>
       <c r="P11">
-        <v>0.02951595783692422</v>
+        <v>0.05315356654931184</v>
       </c>
       <c r="Q11">
-        <v>11.09700725028797</v>
+        <v>16.86776954483133</v>
       </c>
       <c r="R11">
-        <v>11.09700725028797</v>
+        <v>151.809925903482</v>
       </c>
       <c r="S11">
-        <v>0.007461074277508192</v>
+        <v>0.01008843566723626</v>
       </c>
       <c r="T11">
-        <v>0.007461074277508192</v>
+        <v>0.01413535972264237</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.90496562051567</v>
+        <v>8.333402</v>
       </c>
       <c r="H12">
-        <v>7.90496562051567</v>
+        <v>25.000206</v>
       </c>
       <c r="I12">
-        <v>0.2527810318313455</v>
+        <v>0.2500975034597578</v>
       </c>
       <c r="J12">
-        <v>0.2527810318313455</v>
+        <v>0.2659343603881907</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.5347689272172</v>
+        <v>11.85972166666667</v>
       </c>
       <c r="N12">
-        <v>10.5347689272172</v>
+        <v>35.579165</v>
       </c>
       <c r="O12">
-        <v>0.2215011631265148</v>
+        <v>0.2363489312718777</v>
       </c>
       <c r="P12">
-        <v>0.2215011631265148</v>
+        <v>0.3114379851145606</v>
       </c>
       <c r="Q12">
-        <v>83.27698618972872</v>
+        <v>98.83182825644333</v>
       </c>
       <c r="R12">
-        <v>83.27698618972872</v>
+        <v>889.48645430799</v>
       </c>
       <c r="S12">
-        <v>0.05599129256696359</v>
+        <v>0.05911027765647849</v>
       </c>
       <c r="T12">
-        <v>0.05599129256696359</v>
+        <v>0.08282206137202755</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.90496562051567</v>
+        <v>8.333402</v>
       </c>
       <c r="H13">
-        <v>7.90496562051567</v>
+        <v>25.000206</v>
       </c>
       <c r="I13">
-        <v>0.2527810318313455</v>
+        <v>0.2500975034597578</v>
       </c>
       <c r="J13">
-        <v>0.2527810318313455</v>
+        <v>0.2659343603881907</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>35.622212767277</v>
+        <v>36.29503</v>
       </c>
       <c r="N13">
-        <v>35.622212767277</v>
+        <v>72.59005999999999</v>
       </c>
       <c r="O13">
-        <v>0.7489828790365609</v>
+        <v>0.7233130584414281</v>
       </c>
       <c r="P13">
-        <v>0.7489828790365609</v>
+        <v>0.6354084483361276</v>
       </c>
       <c r="Q13">
-        <v>281.592367252019</v>
+        <v>302.46107559206</v>
       </c>
       <c r="R13">
-        <v>281.592367252019</v>
+        <v>1814.76645355236</v>
       </c>
       <c r="S13">
-        <v>0.1893286649868737</v>
+        <v>0.1808987901360431</v>
       </c>
       <c r="T13">
-        <v>0.1893286649868737</v>
+        <v>0.1689769392935208</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.02352706734482</v>
+        <v>5.9529025</v>
       </c>
       <c r="H14">
-        <v>5.02352706734482</v>
+        <v>11.905805</v>
       </c>
       <c r="I14">
-        <v>0.1606398327932614</v>
+        <v>0.1786552543114266</v>
       </c>
       <c r="J14">
-        <v>0.1606398327932614</v>
+        <v>0.1266454619446545</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.40380208883996</v>
+        <v>2.024115666666666</v>
       </c>
       <c r="N14">
-        <v>1.40380208883996</v>
+        <v>6.072347</v>
       </c>
       <c r="O14">
-        <v>0.02951595783692422</v>
+        <v>0.04033801028669426</v>
       </c>
       <c r="P14">
-        <v>0.02951595783692422</v>
+        <v>0.05315356654931184</v>
       </c>
       <c r="Q14">
-        <v>7.052037790482737</v>
+        <v>12.04936321238917</v>
       </c>
       <c r="R14">
-        <v>7.052037790482737</v>
+        <v>72.296179274335</v>
       </c>
       <c r="S14">
-        <v>0.004741438531656458</v>
+        <v>0.007206597486186306</v>
       </c>
       <c r="T14">
-        <v>0.004741438531656458</v>
+        <v>0.006731657989643535</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.02352706734482</v>
+        <v>5.9529025</v>
       </c>
       <c r="H15">
-        <v>5.02352706734482</v>
+        <v>11.905805</v>
       </c>
       <c r="I15">
-        <v>0.1606398327932614</v>
+        <v>0.1786552543114266</v>
       </c>
       <c r="J15">
-        <v>0.1606398327932614</v>
+        <v>0.1266454619446545</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.5347689272172</v>
+        <v>11.85972166666667</v>
       </c>
       <c r="N15">
-        <v>10.5347689272172</v>
+        <v>35.579165</v>
       </c>
       <c r="O15">
-        <v>0.2215011631265148</v>
+        <v>0.2363489312718777</v>
       </c>
       <c r="P15">
-        <v>0.2215011631265148</v>
+        <v>0.3114379851145606</v>
       </c>
       <c r="Q15">
-        <v>52.92169685409876</v>
+        <v>70.59976675880418</v>
       </c>
       <c r="R15">
-        <v>52.92169685409876</v>
+        <v>423.5986005528251</v>
       </c>
       <c r="S15">
-        <v>0.03558190980815625</v>
+        <v>0.0422249784226112</v>
       </c>
       <c r="T15">
-        <v>0.03558190980815625</v>
+        <v>0.03944220749194597</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.02352706734482</v>
+        <v>5.9529025</v>
       </c>
       <c r="H16">
-        <v>5.02352706734482</v>
+        <v>11.905805</v>
       </c>
       <c r="I16">
-        <v>0.1606398327932614</v>
+        <v>0.1786552543114266</v>
       </c>
       <c r="J16">
-        <v>0.1606398327932614</v>
+        <v>0.1266454619446545</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>35.622212767277</v>
+        <v>36.29503</v>
       </c>
       <c r="N16">
-        <v>35.622212767277</v>
+        <v>72.59005999999999</v>
       </c>
       <c r="O16">
-        <v>0.7489828790365609</v>
+        <v>0.7233130584414281</v>
       </c>
       <c r="P16">
-        <v>0.7489828790365609</v>
+        <v>0.6354084483361276</v>
       </c>
       <c r="Q16">
-        <v>178.9491500351322</v>
+        <v>216.060774824575</v>
       </c>
       <c r="R16">
-        <v>178.9491500351322</v>
+        <v>864.2430992983</v>
       </c>
       <c r="S16">
-        <v>0.1203164844534486</v>
+        <v>0.1292236784026291</v>
       </c>
       <c r="T16">
-        <v>0.1203164844534486</v>
+        <v>0.08047159646306504</v>
       </c>
     </row>
   </sheetData>
